--- a/Code/Results/Cases/Case_0_135/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_135/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.72222108405833</v>
+        <v>13.55900185796705</v>
       </c>
       <c r="D2">
-        <v>8.762240179790471</v>
+        <v>8.668425739847907</v>
       </c>
       <c r="E2">
-        <v>11.74778410646731</v>
+        <v>13.94350578747531</v>
       </c>
       <c r="F2">
-        <v>64.47577641397363</v>
+        <v>47.9076808159054</v>
       </c>
       <c r="G2">
-        <v>105.6003354377629</v>
+        <v>72.18944697254682</v>
       </c>
       <c r="H2">
-        <v>26.35683803399982</v>
+        <v>23.23254646083079</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.950764977806474</v>
+        <v>9.315572113616621</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.93633767809048</v>
+        <v>13.4816248690508</v>
       </c>
       <c r="D3">
-        <v>8.171722242817703</v>
+        <v>8.600279589338216</v>
       </c>
       <c r="E3">
-        <v>11.10457132351596</v>
+        <v>13.90519190635668</v>
       </c>
       <c r="F3">
-        <v>59.37462419303075</v>
+        <v>46.83405872097018</v>
       </c>
       <c r="G3">
-        <v>97.22845483906147</v>
+        <v>70.0903229290731</v>
       </c>
       <c r="H3">
-        <v>24.28517172722024</v>
+        <v>22.94706004378695</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.795965607072143</v>
+        <v>9.332952975339234</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502705</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.46201835250368</v>
+        <v>13.43837151218974</v>
       </c>
       <c r="D4">
-        <v>7.814809218707201</v>
+        <v>8.561283301186396</v>
       </c>
       <c r="E4">
-        <v>10.72147426572517</v>
+        <v>13.88584101810917</v>
       </c>
       <c r="F4">
-        <v>56.20421136556347</v>
+        <v>46.18252198220152</v>
       </c>
       <c r="G4">
-        <v>92.02693656219341</v>
+        <v>68.80107669441772</v>
       </c>
       <c r="H4">
-        <v>22.99958896977556</v>
+        <v>22.77866971492673</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.709915646719301</v>
+        <v>9.345659042175612</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896364</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.27032294069628</v>
+        <v>13.4218211190916</v>
       </c>
       <c r="D5">
-        <v>7.670369036297796</v>
+        <v>8.54611529902918</v>
       </c>
       <c r="E5">
-        <v>10.56789044068372</v>
+        <v>13.87900244070478</v>
       </c>
       <c r="F5">
-        <v>54.89922318135695</v>
+        <v>45.91932725982485</v>
       </c>
       <c r="G5">
-        <v>89.88626376907477</v>
+        <v>68.27646305094002</v>
       </c>
       <c r="H5">
-        <v>22.51274245087377</v>
+        <v>22.71184656557442</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.676860700250457</v>
+        <v>9.351345800527138</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188116</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.2385780487611</v>
+        <v>13.41913803068623</v>
       </c>
       <c r="D6">
-        <v>7.646436212017389</v>
+        <v>8.543640545594982</v>
       </c>
       <c r="E6">
-        <v>10.54253080481933</v>
+        <v>13.87793004497138</v>
       </c>
       <c r="F6">
-        <v>54.68166415721465</v>
+        <v>45.87577481330221</v>
       </c>
       <c r="G6">
-        <v>89.53125297740817</v>
+        <v>68.18942332164092</v>
       </c>
       <c r="H6">
-        <v>22.43724780873301</v>
+        <v>22.70086091555697</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.671487024505754</v>
+        <v>9.352320744637565</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566596</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.45942711565534</v>
+        <v>13.43814394651769</v>
       </c>
       <c r="D7">
-        <v>7.812857620408105</v>
+        <v>8.561075802476182</v>
       </c>
       <c r="E7">
-        <v>10.71939320412622</v>
+        <v>13.88574455525301</v>
       </c>
       <c r="F7">
-        <v>56.18666831075318</v>
+        <v>46.17896257887734</v>
       </c>
       <c r="G7">
-        <v>91.99815802223385</v>
+        <v>68.79399731418533</v>
       </c>
       <c r="H7">
-        <v>22.99248002840912</v>
+        <v>22.77776115841678</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.709462008056952</v>
+        <v>9.345733678553058</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304766463</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.44919296371276</v>
+        <v>13.5314426164512</v>
       </c>
       <c r="D8">
-        <v>8.557145527181262</v>
+        <v>8.644343395871864</v>
       </c>
       <c r="E8">
-        <v>11.52322303684949</v>
+        <v>13.92942766219119</v>
       </c>
       <c r="F8">
-        <v>62.7224589786318</v>
+        <v>47.53613242312501</v>
       </c>
       <c r="G8">
-        <v>102.7224398615892</v>
+        <v>71.46625081769692</v>
       </c>
       <c r="H8">
-        <v>25.64437482072957</v>
+        <v>23.13271749797991</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.895353007277636</v>
+        <v>9.321141313725869</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>14.49090302633395</v>
+        <v>13.74785763166715</v>
       </c>
       <c r="D9">
-        <v>10.32675562547812</v>
+        <v>8.829803992956032</v>
       </c>
       <c r="E9">
-        <v>13.22596859749891</v>
+        <v>14.04827398022687</v>
       </c>
       <c r="F9">
-        <v>75.46241305028794</v>
+        <v>50.24183648997253</v>
       </c>
       <c r="G9">
-        <v>123.6445611263156</v>
+        <v>76.66788407378181</v>
       </c>
       <c r="H9">
-        <v>30.82980666830002</v>
+        <v>23.88059320178671</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.346807489612114</v>
+        <v>9.289170125078467</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380647</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>16.13964481539007</v>
+        <v>13.9267231413649</v>
       </c>
       <c r="D10">
-        <v>11.75191728736106</v>
+        <v>8.978948137811136</v>
       </c>
       <c r="E10">
-        <v>14.63306712329349</v>
+        <v>14.15584331716709</v>
       </c>
       <c r="F10">
-        <v>85.28916543593047</v>
+        <v>52.2352237173999</v>
       </c>
       <c r="G10">
-        <v>139.8028755746835</v>
+        <v>80.42167366441181</v>
       </c>
       <c r="H10">
-        <v>34.84161738958328</v>
+        <v>24.45749077920002</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.76532388108537</v>
+        <v>9.275745737809839</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>16.96648556884377</v>
+        <v>14.01226241521013</v>
       </c>
       <c r="D11">
-        <v>12.45558581705481</v>
+        <v>9.049437807732847</v>
       </c>
       <c r="E11">
-        <v>15.41884713900181</v>
+        <v>14.20915972431979</v>
       </c>
       <c r="F11">
-        <v>90.08719210568586</v>
+        <v>53.13899742026904</v>
       </c>
       <c r="G11">
-        <v>147.7005371043355</v>
+        <v>82.10636623692731</v>
       </c>
       <c r="H11">
-        <v>36.80403649220428</v>
+        <v>24.72496789563602</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.099540723127926</v>
+        <v>9.271856640215633</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>17.31781982084649</v>
+        <v>14.04523948718304</v>
       </c>
       <c r="D12">
-        <v>12.73621080238648</v>
+        <v>9.076495748221735</v>
       </c>
       <c r="E12">
-        <v>15.75006048756268</v>
+        <v>14.22997613552102</v>
       </c>
       <c r="F12">
-        <v>91.98855656812688</v>
+        <v>53.48046691368538</v>
       </c>
       <c r="G12">
-        <v>150.8319534514787</v>
+        <v>82.74040831249853</v>
       </c>
       <c r="H12">
-        <v>37.58237156926057</v>
+        <v>24.82690076231405</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.246669801122501</v>
+        <v>9.27070539387131</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585681918</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>17.24123182094333</v>
+        <v>14.03811150536243</v>
       </c>
       <c r="D13">
-        <v>12.67499057222897</v>
+        <v>9.070652349051427</v>
       </c>
       <c r="E13">
-        <v>15.67788012839329</v>
+        <v>14.22546514605383</v>
       </c>
       <c r="F13">
-        <v>91.57439118740585</v>
+        <v>53.40696469294019</v>
       </c>
       <c r="G13">
-        <v>150.1497629152521</v>
+        <v>82.60403931071448</v>
       </c>
       <c r="H13">
-        <v>37.41279766474169</v>
+        <v>24.80492027918215</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.214610783085456</v>
+        <v>9.270938997608424</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617575</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>16.99499294771635</v>
+        <v>14.01496381921019</v>
       </c>
       <c r="D14">
-        <v>12.47833641173289</v>
+        <v>9.051656653790264</v>
       </c>
       <c r="E14">
-        <v>15.44573164475634</v>
+        <v>14.21085976804016</v>
       </c>
       <c r="F14">
-        <v>90.24160922391353</v>
+        <v>53.16710759304178</v>
       </c>
       <c r="G14">
-        <v>147.9548131328122</v>
+        <v>82.15861103951644</v>
       </c>
       <c r="H14">
-        <v>36.86723377553356</v>
+        <v>24.73334150394997</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.111485180552258</v>
+        <v>9.271755469235908</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489661</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>16.85053986441867</v>
+        <v>14.00086094517313</v>
       </c>
       <c r="D15">
-        <v>12.35998742453</v>
+        <v>9.0400683206179</v>
       </c>
       <c r="E15">
-        <v>15.30581709638705</v>
+        <v>14.20199503713991</v>
       </c>
       <c r="F15">
-        <v>89.43781991031119</v>
+        <v>53.02007835300726</v>
       </c>
       <c r="G15">
-        <v>146.6312993605254</v>
+        <v>81.88524626135931</v>
       </c>
       <c r="H15">
-        <v>36.53829964255954</v>
+        <v>24.68957907039972</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.049318550892545</v>
+        <v>9.272297521850428</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549472</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>16.08781331737246</v>
+        <v>13.92121567229163</v>
       </c>
       <c r="D16">
-        <v>11.70748119735343</v>
+        <v>8.974393390303426</v>
       </c>
       <c r="E16">
-        <v>14.58847532772279</v>
+        <v>14.15244687154543</v>
       </c>
       <c r="F16">
-        <v>84.98483036516382</v>
+        <v>52.17606996575329</v>
       </c>
       <c r="G16">
-        <v>139.3021299907043</v>
+        <v>80.31105956290855</v>
       </c>
       <c r="H16">
-        <v>34.71722276332162</v>
+        <v>24.4401051549455</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.751533676768926</v>
+        <v>9.276044746176822</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>15.6421047851394</v>
+        <v>13.87341440701757</v>
       </c>
       <c r="D17">
-        <v>11.32459882957641</v>
+        <v>8.934770471476583</v>
       </c>
       <c r="E17">
-        <v>14.20592932896287</v>
+        <v>14.12317094580974</v>
       </c>
       <c r="F17">
-        <v>82.35652158760367</v>
+        <v>51.65727789742891</v>
       </c>
       <c r="G17">
-        <v>134.9784831788233</v>
+        <v>79.33901692144808</v>
       </c>
       <c r="H17">
-        <v>33.64331576742102</v>
+        <v>24.28829572514255</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.634575787333786</v>
+        <v>9.278913400493986</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>15.39203306069016</v>
+        <v>13.84631408193672</v>
       </c>
       <c r="D18">
-        <v>11.10907053439184</v>
+        <v>8.912230166716759</v>
       </c>
       <c r="E18">
-        <v>13.99203043155159</v>
+        <v>14.1067449960712</v>
       </c>
       <c r="F18">
-        <v>80.87254476492336</v>
+        <v>51.3586161282243</v>
       </c>
       <c r="G18">
-        <v>132.5379880899499</v>
+        <v>78.77779905419064</v>
       </c>
       <c r="H18">
-        <v>33.03728589689694</v>
+        <v>24.20145849695763</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.570264903240843</v>
+        <v>9.280771967287276</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568142</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>15.30830336292545</v>
+        <v>13.83720642639589</v>
       </c>
       <c r="D19">
-        <v>11.03677521299709</v>
+        <v>8.904641748294285</v>
       </c>
       <c r="E19">
-        <v>13.92053434283516</v>
+        <v>14.10125444054148</v>
       </c>
       <c r="F19">
-        <v>80.37409218817974</v>
+        <v>51.25745918716812</v>
       </c>
       <c r="G19">
-        <v>131.7183581951492</v>
+        <v>78.58743521373179</v>
       </c>
       <c r="H19">
-        <v>32.83377726200178</v>
+        <v>24.17214170793591</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.548948563201831</v>
+        <v>9.281436993052242</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880252</v>
+        <v>20.73962067985786</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>15.68886528146676</v>
+        <v>13.87846229037131</v>
       </c>
       <c r="D20">
-        <v>11.36483926908353</v>
+        <v>8.938962657424467</v>
       </c>
       <c r="E20">
-        <v>14.2459855364366</v>
+        <v>14.12624471867985</v>
       </c>
       <c r="F20">
-        <v>82.63324314220087</v>
+        <v>51.71253424990176</v>
       </c>
       <c r="G20">
-        <v>135.433623543958</v>
+        <v>79.44271707698709</v>
       </c>
       <c r="H20">
-        <v>33.75634885360365</v>
+        <v>24.30440704848571</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.646707168263122</v>
+        <v>9.278586420053449</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>17.06677925274108</v>
+        <v>14.02174709709875</v>
       </c>
       <c r="D21">
-        <v>12.53564070667356</v>
+        <v>9.057226366662372</v>
       </c>
       <c r="E21">
-        <v>15.51342337209737</v>
+        <v>14.21513274800013</v>
       </c>
       <c r="F21">
-        <v>90.63034670873495</v>
+        <v>53.23758289492702</v>
       </c>
       <c r="G21">
-        <v>148.5949701092444</v>
+        <v>82.28955498714295</v>
       </c>
       <c r="H21">
-        <v>37.02634096763612</v>
+        <v>24.75434905562831</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.141558118888894</v>
+        <v>9.271506906931011</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633599</v>
+        <v>21.70751365554063</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>18.13451433483617</v>
+        <v>14.11879537796627</v>
       </c>
       <c r="D22">
-        <v>13.39095141314718</v>
+        <v>9.136638772420456</v>
       </c>
       <c r="E22">
-        <v>16.51914288164909</v>
+        <v>14.27687643601536</v>
       </c>
       <c r="F22">
-        <v>96.39448158470707</v>
+        <v>54.22966244685191</v>
       </c>
       <c r="G22">
-        <v>158.0924080398463</v>
+        <v>84.12706683342137</v>
       </c>
       <c r="H22">
-        <v>39.38747059914014</v>
+        <v>25.05213535015073</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.588145303134788</v>
+        <v>9.268754965118202</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>17.55074974125561</v>
+        <v>14.06669265417337</v>
       </c>
       <c r="D23">
-        <v>12.9225761713239</v>
+        <v>9.094066027348282</v>
       </c>
       <c r="E23">
-        <v>15.96951844163418</v>
+        <v>14.24359010420323</v>
       </c>
       <c r="F23">
-        <v>93.24711202565823</v>
+        <v>53.7006993027741</v>
       </c>
       <c r="G23">
-        <v>152.9052897227089</v>
+        <v>83.14865113589286</v>
       </c>
       <c r="H23">
-        <v>38.09778185960431</v>
+        <v>24.89288692482633</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.344129268025622</v>
+        <v>9.270051338267285</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911182</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>15.66770606430073</v>
+        <v>13.87617895366222</v>
       </c>
       <c r="D24">
-        <v>11.34663264058794</v>
+        <v>8.937066623223368</v>
       </c>
       <c r="E24">
-        <v>14.22785772535643</v>
+        <v>14.12485380369239</v>
       </c>
       <c r="F24">
-        <v>82.50805534986033</v>
+        <v>51.68755407727866</v>
       </c>
       <c r="G24">
-        <v>135.2277176172846</v>
+        <v>79.39584159484056</v>
       </c>
       <c r="H24">
-        <v>33.70521214092984</v>
+        <v>24.29712174250673</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.641213598503243</v>
+        <v>9.278733596060148</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911919</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.92125908284352</v>
+        <v>13.68577831548532</v>
       </c>
       <c r="D25">
-        <v>9.826181414635773</v>
+        <v>8.777318547159412</v>
       </c>
       <c r="E25">
-        <v>12.74588133509568</v>
+        <v>14.01256355229876</v>
       </c>
       <c r="F25">
-        <v>71.98429066613839</v>
+        <v>49.50739887925336</v>
       </c>
       <c r="G25">
-        <v>117.9300011354993</v>
+        <v>75.26962022524248</v>
       </c>
       <c r="H25">
-        <v>29.41227406259762</v>
+        <v>23.67314524421316</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.212709881863925</v>
+        <v>9.296062750898752</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088412</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_135/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_135/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.55900185796705</v>
+        <v>12.72222108405829</v>
       </c>
       <c r="D2">
-        <v>8.668425739847907</v>
+        <v>8.762240179790458</v>
       </c>
       <c r="E2">
-        <v>13.94350578747531</v>
+        <v>11.7477841064673</v>
       </c>
       <c r="F2">
-        <v>47.9076808159054</v>
+        <v>64.47577641397362</v>
       </c>
       <c r="G2">
-        <v>72.18944697254682</v>
+        <v>105.6003354377628</v>
       </c>
       <c r="H2">
-        <v>23.23254646083079</v>
+        <v>26.35683803399982</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.315572113616621</v>
+        <v>5.950764977806446</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883691</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.4816248690508</v>
+        <v>11.93633767809051</v>
       </c>
       <c r="D3">
-        <v>8.600279589338216</v>
+        <v>8.17172224281763</v>
       </c>
       <c r="E3">
-        <v>13.90519190635668</v>
+        <v>11.10457132351598</v>
       </c>
       <c r="F3">
-        <v>46.83405872097018</v>
+        <v>59.37462419303088</v>
       </c>
       <c r="G3">
-        <v>70.0903229290731</v>
+        <v>97.22845483906165</v>
       </c>
       <c r="H3">
-        <v>22.94706004378695</v>
+        <v>24.28517172722028</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.332952975339234</v>
+        <v>5.795965607072183</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502705</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.43837151218974</v>
+        <v>11.46201835250361</v>
       </c>
       <c r="D4">
-        <v>8.561283301186396</v>
+        <v>7.814809218707235</v>
       </c>
       <c r="E4">
-        <v>13.88584101810917</v>
+        <v>10.72147426572518</v>
       </c>
       <c r="F4">
-        <v>46.18252198220152</v>
+        <v>56.20421136556343</v>
       </c>
       <c r="G4">
-        <v>68.80107669441772</v>
+        <v>92.02693656219336</v>
       </c>
       <c r="H4">
-        <v>22.77866971492673</v>
+        <v>22.99958896977556</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.345659042175612</v>
+        <v>5.709915646719357</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896364</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.4218211190916</v>
+        <v>11.27032294069636</v>
       </c>
       <c r="D5">
-        <v>8.54611529902918</v>
+        <v>7.670369036297789</v>
       </c>
       <c r="E5">
-        <v>13.87900244070478</v>
+        <v>10.56789044068376</v>
       </c>
       <c r="F5">
-        <v>45.91932725982485</v>
+        <v>54.89922318135713</v>
       </c>
       <c r="G5">
-        <v>68.27646305094002</v>
+        <v>89.88626376907506</v>
       </c>
       <c r="H5">
-        <v>22.71184656557442</v>
+        <v>22.51274245087377</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.351345800527138</v>
+        <v>5.676860700250494</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188116</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.41913803068623</v>
+        <v>11.23857804876101</v>
       </c>
       <c r="D6">
-        <v>8.543640545594982</v>
+        <v>7.646436212017338</v>
       </c>
       <c r="E6">
-        <v>13.87793004497138</v>
+        <v>10.54253080481931</v>
       </c>
       <c r="F6">
-        <v>45.87577481330221</v>
+        <v>54.68166415721484</v>
       </c>
       <c r="G6">
-        <v>68.18942332164092</v>
+        <v>89.53125297740836</v>
       </c>
       <c r="H6">
-        <v>22.70086091555697</v>
+        <v>22.43724780873299</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.352320744637565</v>
+        <v>5.671487024505773</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566596</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.43814394651769</v>
+        <v>11.45942711565539</v>
       </c>
       <c r="D7">
-        <v>8.561075802476182</v>
+        <v>7.812857620408137</v>
       </c>
       <c r="E7">
-        <v>13.88574455525301</v>
+        <v>10.71939320412627</v>
       </c>
       <c r="F7">
-        <v>46.17896257887734</v>
+        <v>56.18666831075318</v>
       </c>
       <c r="G7">
-        <v>68.79399731418533</v>
+        <v>91.9981580222338</v>
       </c>
       <c r="H7">
-        <v>22.77776115841678</v>
+        <v>22.99248002840913</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.345733678553058</v>
+        <v>5.709462008056978</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304766463</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.5314426164512</v>
+        <v>12.44919296371279</v>
       </c>
       <c r="D8">
-        <v>8.644343395871864</v>
+        <v>8.557145527181328</v>
       </c>
       <c r="E8">
-        <v>13.92942766219119</v>
+        <v>11.52322303684951</v>
       </c>
       <c r="F8">
-        <v>47.53613242312501</v>
+        <v>62.7224589786318</v>
       </c>
       <c r="G8">
-        <v>71.46625081769692</v>
+        <v>102.7224398615893</v>
       </c>
       <c r="H8">
-        <v>23.13271749797991</v>
+        <v>25.64437482072958</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.321141313725869</v>
+        <v>5.89535300727763</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.74785763166715</v>
+        <v>14.49090302633383</v>
       </c>
       <c r="D9">
-        <v>8.829803992956032</v>
+        <v>10.32675562547799</v>
       </c>
       <c r="E9">
-        <v>14.04827398022687</v>
+        <v>13.22596859749879</v>
       </c>
       <c r="F9">
-        <v>50.24183648997253</v>
+        <v>75.4624130502874</v>
       </c>
       <c r="G9">
-        <v>76.66788407378181</v>
+        <v>123.6445611263147</v>
       </c>
       <c r="H9">
-        <v>23.88059320178671</v>
+        <v>30.82980666829977</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.289170125078467</v>
+        <v>6.346807489612064</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.9267231413649</v>
+        <v>16.13964481539018</v>
       </c>
       <c r="D10">
-        <v>8.978948137811136</v>
+        <v>11.7519172873611</v>
       </c>
       <c r="E10">
-        <v>14.15584331716709</v>
+        <v>14.63306712329354</v>
       </c>
       <c r="F10">
-        <v>52.2352237173999</v>
+        <v>85.28916543593034</v>
       </c>
       <c r="G10">
-        <v>80.42167366441181</v>
+        <v>139.8028755746833</v>
       </c>
       <c r="H10">
-        <v>24.45749077920002</v>
+        <v>34.84161738958327</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.275745737809839</v>
+        <v>6.765323881085392</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.01226241521013</v>
+        <v>16.9664855688438</v>
       </c>
       <c r="D11">
-        <v>9.049437807732847</v>
+        <v>12.45558581705476</v>
       </c>
       <c r="E11">
-        <v>14.20915972431979</v>
+        <v>15.4188471390018</v>
       </c>
       <c r="F11">
-        <v>53.13899742026904</v>
+        <v>90.0871921056854</v>
       </c>
       <c r="G11">
-        <v>82.10636623692731</v>
+        <v>147.7005371043347</v>
       </c>
       <c r="H11">
-        <v>24.72496789563602</v>
+        <v>36.8040364922041</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.271856640215633</v>
+        <v>7.099540723127918</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374477</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>14.04523948718304</v>
+        <v>17.31781982084651</v>
       </c>
       <c r="D12">
-        <v>9.076495748221735</v>
+        <v>12.73621080238637</v>
       </c>
       <c r="E12">
-        <v>14.22997613552102</v>
+        <v>15.7500604875627</v>
       </c>
       <c r="F12">
-        <v>53.48046691368538</v>
+        <v>91.98855656812701</v>
       </c>
       <c r="G12">
-        <v>82.74040831249853</v>
+        <v>150.8319534514788</v>
       </c>
       <c r="H12">
-        <v>24.82690076231405</v>
+        <v>37.5823715692606</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.27070539387131</v>
+        <v>7.246669801122533</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585681918</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>14.03811150536243</v>
+        <v>17.2412318209434</v>
       </c>
       <c r="D13">
-        <v>9.070652349051427</v>
+        <v>12.67499057222892</v>
       </c>
       <c r="E13">
-        <v>14.22546514605383</v>
+        <v>15.67788012839327</v>
       </c>
       <c r="F13">
-        <v>53.40696469294019</v>
+        <v>91.57439118740565</v>
       </c>
       <c r="G13">
-        <v>82.60403931071448</v>
+        <v>150.1497629152518</v>
       </c>
       <c r="H13">
-        <v>24.80492027918215</v>
+        <v>37.41279766474162</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.270938997608424</v>
+        <v>7.214610783085424</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617577</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.01496381921019</v>
+        <v>16.99499294771635</v>
       </c>
       <c r="D14">
-        <v>9.051656653790264</v>
+        <v>12.47833641173302</v>
       </c>
       <c r="E14">
-        <v>14.21085976804016</v>
+        <v>15.44573164475638</v>
       </c>
       <c r="F14">
-        <v>53.16710759304178</v>
+        <v>90.2416092239136</v>
       </c>
       <c r="G14">
-        <v>82.15861103951644</v>
+        <v>147.9548131328125</v>
       </c>
       <c r="H14">
-        <v>24.73334150394997</v>
+        <v>36.86723377553363</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.271755469235908</v>
+        <v>7.111485180552261</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489661</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.00086094517313</v>
+        <v>16.85053986441886</v>
       </c>
       <c r="D15">
-        <v>9.0400683206179</v>
+        <v>12.35998742453007</v>
       </c>
       <c r="E15">
-        <v>14.20199503713991</v>
+        <v>15.30581709638712</v>
       </c>
       <c r="F15">
-        <v>53.02007835300726</v>
+        <v>89.43781991031192</v>
       </c>
       <c r="G15">
-        <v>81.88524626135931</v>
+        <v>146.6312993605264</v>
       </c>
       <c r="H15">
-        <v>24.68957907039972</v>
+        <v>36.53829964255983</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.272297521850428</v>
+        <v>7.049318550892497</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549475</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.92121567229163</v>
+        <v>16.0878133173725</v>
       </c>
       <c r="D16">
-        <v>8.974393390303426</v>
+        <v>11.70748119735355</v>
       </c>
       <c r="E16">
-        <v>14.15244687154543</v>
+        <v>14.58847532772284</v>
       </c>
       <c r="F16">
-        <v>52.17606996575329</v>
+        <v>84.98483036516397</v>
       </c>
       <c r="G16">
-        <v>80.31105956290855</v>
+        <v>139.3021299907045</v>
       </c>
       <c r="H16">
-        <v>24.4401051549455</v>
+        <v>34.71722276332173</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.276044746176822</v>
+        <v>6.751533676768967</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.42464283346098</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.87341440701757</v>
+        <v>15.64210478513946</v>
       </c>
       <c r="D17">
-        <v>8.934770471476583</v>
+        <v>11.32459882957652</v>
       </c>
       <c r="E17">
-        <v>14.12317094580974</v>
+        <v>14.20592932896287</v>
       </c>
       <c r="F17">
-        <v>51.65727789742891</v>
+        <v>82.35652158760371</v>
       </c>
       <c r="G17">
-        <v>79.33901692144808</v>
+        <v>134.9784831788234</v>
       </c>
       <c r="H17">
-        <v>24.28829572514255</v>
+        <v>33.64331576742101</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.278913400493986</v>
+        <v>6.634575787333777</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119277</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.84631408193672</v>
+        <v>15.39203306069016</v>
       </c>
       <c r="D18">
-        <v>8.912230166716759</v>
+        <v>11.10907053439184</v>
       </c>
       <c r="E18">
-        <v>14.1067449960712</v>
+        <v>13.99203043155162</v>
       </c>
       <c r="F18">
-        <v>51.3586161282243</v>
+        <v>80.87254476492336</v>
       </c>
       <c r="G18">
-        <v>78.77779905419064</v>
+        <v>132.53798808995</v>
       </c>
       <c r="H18">
-        <v>24.20145849695763</v>
+        <v>33.03728589689695</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.280771967287276</v>
+        <v>6.570264903240866</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568142</v>
+        <v>29.56404287680426</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.83720642639589</v>
+        <v>15.30830336292537</v>
       </c>
       <c r="D19">
-        <v>8.904641748294285</v>
+        <v>11.03677521299699</v>
       </c>
       <c r="E19">
-        <v>14.10125444054148</v>
+        <v>13.92053434283513</v>
       </c>
       <c r="F19">
-        <v>51.25745918716812</v>
+        <v>80.37409218817933</v>
       </c>
       <c r="G19">
-        <v>78.58743521373179</v>
+        <v>131.7183581951485</v>
       </c>
       <c r="H19">
-        <v>24.17214170793591</v>
+        <v>32.8337772620016</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.281436993052242</v>
+        <v>6.548948563201831</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985786</v>
+        <v>29.45587200880252</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.87846229037131</v>
+        <v>15.68886528146679</v>
       </c>
       <c r="D20">
-        <v>8.938962657424467</v>
+        <v>11.36483926908367</v>
       </c>
       <c r="E20">
-        <v>14.12624471867985</v>
+        <v>14.24598553643662</v>
       </c>
       <c r="F20">
-        <v>51.71253424990176</v>
+        <v>82.63324314220107</v>
       </c>
       <c r="G20">
-        <v>79.44271707698709</v>
+        <v>135.4336235439583</v>
       </c>
       <c r="H20">
-        <v>24.30440704848571</v>
+        <v>33.75634885360374</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.278586420053449</v>
+        <v>6.64670716826313</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.02174709709875</v>
+        <v>17.06677925274103</v>
       </c>
       <c r="D21">
-        <v>9.057226366662372</v>
+        <v>12.53564070667355</v>
       </c>
       <c r="E21">
-        <v>14.21513274800013</v>
+        <v>15.51342337209738</v>
       </c>
       <c r="F21">
-        <v>53.23758289492702</v>
+        <v>90.63034670873461</v>
       </c>
       <c r="G21">
-        <v>82.28955498714295</v>
+        <v>148.5949701092439</v>
       </c>
       <c r="H21">
-        <v>24.75434905562831</v>
+        <v>37.02634096763598</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.271506906931011</v>
+        <v>7.141558118888904</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554063</v>
+        <v>31.50948335633599</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.11879537796627</v>
+        <v>18.13451433483605</v>
       </c>
       <c r="D22">
-        <v>9.136638772420456</v>
+        <v>13.39095141314701</v>
       </c>
       <c r="E22">
-        <v>14.27687643601536</v>
+        <v>16.51914288164903</v>
       </c>
       <c r="F22">
-        <v>54.22966244685191</v>
+        <v>96.3944815847064</v>
       </c>
       <c r="G22">
-        <v>84.12706683342137</v>
+        <v>158.0924080398452</v>
       </c>
       <c r="H22">
-        <v>25.05213535015073</v>
+        <v>39.38747059913987</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.268754965118202</v>
+        <v>7.588145303134744</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050591</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.06669265417337</v>
+        <v>17.55074974125545</v>
       </c>
       <c r="D23">
-        <v>9.094066027348282</v>
+        <v>12.92257617132382</v>
       </c>
       <c r="E23">
-        <v>14.24359010420323</v>
+        <v>15.96951844163413</v>
       </c>
       <c r="F23">
-        <v>53.7006993027741</v>
+        <v>93.24711202565777</v>
       </c>
       <c r="G23">
-        <v>83.14865113589286</v>
+        <v>152.9052897227081</v>
       </c>
       <c r="H23">
-        <v>24.89288692482633</v>
+        <v>38.09778185960416</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.270051338267285</v>
+        <v>7.344129268025587</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911182</v>
+        <v>31.97238356075507</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.87617895366222</v>
+        <v>15.66770606430076</v>
       </c>
       <c r="D24">
-        <v>8.937066623223368</v>
+        <v>11.34663264058794</v>
       </c>
       <c r="E24">
-        <v>14.12485380369239</v>
+        <v>14.22785772535646</v>
       </c>
       <c r="F24">
-        <v>51.68755407727866</v>
+        <v>82.50805534986073</v>
       </c>
       <c r="G24">
-        <v>79.39584159484056</v>
+        <v>135.2277176172852</v>
       </c>
       <c r="H24">
-        <v>24.29712174250673</v>
+        <v>33.70521214092997</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.278733596060148</v>
+        <v>6.641213598503251</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911916</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.68577831548532</v>
+        <v>13.92125908284348</v>
       </c>
       <c r="D25">
-        <v>8.777318547159412</v>
+        <v>9.826181414635631</v>
       </c>
       <c r="E25">
-        <v>14.01256355229876</v>
+        <v>12.74588133509564</v>
       </c>
       <c r="F25">
-        <v>49.50739887925336</v>
+        <v>71.98429066613826</v>
       </c>
       <c r="G25">
-        <v>75.26962022524248</v>
+        <v>117.9300011354991</v>
       </c>
       <c r="H25">
-        <v>23.67314524421316</v>
+        <v>29.41227406259753</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.296062750898752</v>
+        <v>6.212709881863898</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.5170850808841</v>
       </c>
       <c r="O25">
         <v>0</v>
